--- a/doc/ue_latentmanager.xlsx
+++ b/doc/ue_latentmanager.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A4F12-A5FD-46D2-BE3B-DBA2F84CFF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F7246-23A3-4B4F-9A7A-01158A4BE97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>FStreamLevelAction</t>
   </si>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>FLatentActionManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">加载SubLevel </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,39 +844,45 @@
     </row>
     <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="6" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="47" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -922,13 +935,16 @@
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
@@ -938,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
         <v>33</v>
